--- a/Multi-taxa_data/PLITs/extraction/PLIT_ZP.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_ZP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D1FF3-DF7F-4BAE-9920-51F7D28C348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722F7D71-6A6E-4823-BF3F-6EFFC1DF9A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -2663,10 +2663,10 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C231" sqref="C231"/>
+      <selection pane="bottomRight" activeCell="I227" sqref="I227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6351,7 +6351,7 @@
         <v>8</v>
       </c>
       <c r="C198" s="6">
-        <f t="shared" ref="C198:C232" si="3">A199-A198</f>
+        <f t="shared" ref="C198:C231" si="3">A199-A198</f>
         <v>3</v>
       </c>
       <c r="D198" s="6"/>
@@ -6997,7 +6997,7 @@
   </sheetPr>
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="H282" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -17399,7 +17399,7 @@
         <v>10</v>
       </c>
       <c r="C262" s="6">
-        <f t="shared" ref="C262:C312" si="4">A263-A262</f>
+        <f t="shared" ref="C262:C311" si="4">A263-A262</f>
         <v>3</v>
       </c>
       <c r="D262" t="s">
@@ -20827,7 +20827,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="6">
-        <f t="shared" ref="C134:C169" si="2">A135-A134</f>
+        <f t="shared" ref="C134:C168" si="2">A135-A134</f>
         <v>4</v>
       </c>
       <c r="D134" s="16" t="s">
@@ -25293,7 +25293,7 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="J195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_ZP.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_ZP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722F7D71-6A6E-4823-BF3F-6EFFC1DF9A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB4EB6-E6ED-4095-8C4B-D76170C7C5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -2663,7 +2663,7 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="I227" sqref="I227"/>
@@ -6997,7 +6997,7 @@
   </sheetPr>
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="H282" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -12584,10 +12584,10 @@
   <dimension ref="A1:U313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J295" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C312" sqref="C312"/>
+      <selection pane="bottomRight" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15811,7 +15811,7 @@
       </c>
       <c r="C173" s="6">
         <f t="shared" si="2"/>
-        <v>-184</v>
+        <v>16</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>37</v>
@@ -15822,7 +15822,7 @@
     </row>
     <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>10</v>
@@ -15840,7 +15840,7 @@
     </row>
     <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>1354</v>
+        <v>1554</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>8</v>
@@ -15858,7 +15858,7 @@
     </row>
     <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>1356</v>
+        <v>1556</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>8</v>
@@ -15876,14 +15876,14 @@
     </row>
     <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>1368</v>
+        <v>1568</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C177" s="6">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>37</v>
@@ -25293,11 +25293,11 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="J195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C207"/>
+      <selection pane="bottomRight" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26003,7 +26003,7 @@
       </c>
       <c r="C34" s="6">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>28</v>
@@ -26014,14 +26014,14 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>37</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="C45" s="6">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -26208,14 +26208,14 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>756</v>
+        <v>726</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="6">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>37</v>
@@ -27435,7 +27435,7 @@
       </c>
       <c r="C113" s="6">
         <f t="shared" si="1"/>
-        <v>-80</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>37</v>
@@ -27446,14 +27446,14 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>1452</v>
+        <v>1542</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="6">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>28</v>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_ZP.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_ZP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3327257-A546-426D-90EC-766BBA9257C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7360EE86-A198-4A9F-8A09-95C48EB407DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="S2" sheetId="3" r:id="rId5"/>
     <sheet name="S3" sheetId="4" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$U$304</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$U$313</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="745">
   <si>
     <t>D1</t>
   </si>
@@ -638,9 +642,6 @@
   </si>
   <si>
     <t>P5230103</t>
-  </si>
-  <si>
-    <t>encr</t>
   </si>
   <si>
     <t>P5230103-4</t>
@@ -2294,22 +2295,26 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2328,6 +2333,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2659,7 +2665,7 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2796,7 +2802,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -2821,7 +2827,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -2843,7 +2849,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -2865,7 +2871,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -2889,7 +2895,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -2912,7 +2918,7 @@
       <c r="D10" s="6"/>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -2933,7 +2939,7 @@
         <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -2951,7 +2957,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="K12" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2971,7 +2977,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -2992,7 +2998,7 @@
         <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -3013,7 +3019,7 @@
         <v>19</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -3032,7 +3038,7 @@
       <c r="D16" s="1"/>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3050,7 +3056,7 @@
         <v>28</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3069,7 +3075,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -3088,7 +3094,7 @@
         <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -3107,7 +3113,7 @@
         <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3125,7 +3131,7 @@
         <v>28</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3144,7 +3150,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3161,7 +3167,7 @@
       <c r="D23" s="6"/>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3179,7 +3185,7 @@
         <v>28</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -3198,7 +3204,7 @@
         <v>36</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -3217,7 +3223,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -3236,7 +3242,7 @@
         <v>36</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -3255,7 +3261,7 @@
         <v>28</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3273,7 +3279,7 @@
         <v>36</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3291,7 +3297,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3309,7 +3315,7 @@
         <v>36</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -3325,13 +3331,13 @@
       </c>
       <c r="D32" s="6"/>
       <c r="F32" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3349,7 +3355,7 @@
         <v>36</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3367,7 +3373,7 @@
         <v>101</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3385,7 +3391,7 @@
         <v>36</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3403,7 +3409,7 @@
         <v>20</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3421,7 +3427,7 @@
         <v>36</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3439,7 +3445,7 @@
         <v>28</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3457,7 +3463,7 @@
         <v>36</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3473,7 +3479,7 @@
       </c>
       <c r="D40" s="6"/>
       <c r="K40" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3491,7 +3497,7 @@
         <v>36</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3509,7 +3515,7 @@
         <v>28</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -3528,7 +3534,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3546,7 +3552,7 @@
         <v>25</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3565,7 +3571,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3583,7 +3589,7 @@
         <v>25</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -3602,7 +3608,7 @@
         <v>36</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3620,7 +3626,7 @@
         <v>28</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3638,7 +3644,7 @@
         <v>36</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -3656,7 +3662,7 @@
         <v>27</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -3674,7 +3680,7 @@
         <v>36</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3692,7 +3698,7 @@
         <v>25</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -3710,7 +3716,7 @@
         <v>28</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3728,7 +3734,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -3746,7 +3752,7 @@
         <v>28</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -3764,7 +3770,7 @@
         <v>36</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3782,7 +3788,7 @@
         <v>22</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L57" s="13" t="s">
         <v>40</v>
@@ -3803,7 +3809,7 @@
         <v>36</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3821,7 +3827,7 @@
         <v>28</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -3839,7 +3845,7 @@
         <v>25</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3857,7 +3863,7 @@
         <v>36</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -3875,7 +3881,7 @@
         <v>22</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -3894,7 +3900,7 @@
         <v>36</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -3913,7 +3919,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3932,7 +3938,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -3951,7 +3957,7 @@
         <v>28</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3967,7 +3973,7 @@
       </c>
       <c r="D67" s="6"/>
       <c r="K67" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3985,7 +3991,7 @@
         <v>28</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -4004,7 +4010,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -4022,7 +4028,7 @@
         <v>28</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -4040,7 +4046,7 @@
         <v>36</v>
       </c>
       <c r="K71" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -4058,7 +4064,7 @@
         <v>22</v>
       </c>
       <c r="K72" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4076,7 +4082,7 @@
         <v>28</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -4095,7 +4101,7 @@
         <v>23</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4113,7 +4119,7 @@
         <v>36</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4131,7 +4137,7 @@
         <v>28</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4149,7 +4155,7 @@
         <v>36</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -4168,7 +4174,7 @@
         <v>28</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -4187,7 +4193,7 @@
         <v>36</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4205,7 +4211,7 @@
         <v>28</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4223,7 +4229,7 @@
         <v>36</v>
       </c>
       <c r="K81" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4241,7 +4247,7 @@
         <v>22</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4259,7 +4265,7 @@
         <v>36</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4277,7 +4283,7 @@
         <v>28</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4295,7 +4301,7 @@
         <v>22</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4313,7 +4319,7 @@
         <v>25</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4331,7 +4337,7 @@
         <v>25</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4349,7 +4355,7 @@
         <v>36</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4365,13 +4371,13 @@
       </c>
       <c r="D89" s="6"/>
       <c r="F89" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4389,7 +4395,7 @@
         <v>36</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -4405,7 +4411,7 @@
       </c>
       <c r="D91" s="6"/>
       <c r="K91" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4423,7 +4429,7 @@
         <v>28</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4441,7 +4447,7 @@
         <v>36</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -4459,7 +4465,7 @@
         <v>24</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4477,7 +4483,7 @@
         <v>36</v>
       </c>
       <c r="K95" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4495,7 +4501,7 @@
         <v>22</v>
       </c>
       <c r="K96" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4513,7 +4519,7 @@
         <v>36</v>
       </c>
       <c r="K97" s="16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4529,7 +4535,7 @@
       </c>
       <c r="D98" s="6"/>
       <c r="K98" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4547,10 +4553,10 @@
         <v>36</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4568,10 +4574,10 @@
         <v>19</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L100" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4589,7 +4595,7 @@
         <v>28</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4607,7 +4613,7 @@
         <v>36</v>
       </c>
       <c r="K102" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4625,7 +4631,7 @@
         <v>22</v>
       </c>
       <c r="K103" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4643,7 +4649,7 @@
         <v>36</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4661,7 +4667,7 @@
         <v>28</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4679,7 +4685,7 @@
         <v>36</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4697,7 +4703,7 @@
         <v>25</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4715,7 +4721,7 @@
         <v>19</v>
       </c>
       <c r="K108" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4733,7 +4739,7 @@
         <v>36</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -4752,7 +4758,7 @@
         <v>19</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4770,7 +4776,7 @@
         <v>36</v>
       </c>
       <c r="K111" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -4788,7 +4794,7 @@
         <v>26</v>
       </c>
       <c r="K112" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -4806,7 +4812,7 @@
         <v>36</v>
       </c>
       <c r="K113" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -4824,7 +4830,7 @@
         <v>19</v>
       </c>
       <c r="K114" s="16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4843,7 +4849,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -4861,7 +4867,7 @@
         <v>28</v>
       </c>
       <c r="K116" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -4879,7 +4885,7 @@
         <v>36</v>
       </c>
       <c r="K117" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -4898,7 +4904,7 @@
         <v>22</v>
       </c>
       <c r="K118" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -4916,7 +4922,7 @@
         <v>36</v>
       </c>
       <c r="K119" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -4934,7 +4940,7 @@
         <v>25</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -4952,7 +4958,7 @@
         <v>24</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -4970,7 +4976,7 @@
         <v>36</v>
       </c>
       <c r="K122" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -4988,7 +4994,7 @@
         <v>22</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5006,7 +5012,7 @@
         <v>36</v>
       </c>
       <c r="K124" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -5025,7 +5031,7 @@
         <v>24</v>
       </c>
       <c r="K125" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5043,7 +5049,7 @@
         <v>36</v>
       </c>
       <c r="K126" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5059,7 +5065,7 @@
       </c>
       <c r="D127" s="6"/>
       <c r="K127" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5077,7 +5083,7 @@
         <v>36</v>
       </c>
       <c r="K128" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -5095,7 +5101,7 @@
         <v>28</v>
       </c>
       <c r="K129" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -5113,7 +5119,7 @@
         <v>36</v>
       </c>
       <c r="K130" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -5131,7 +5137,7 @@
         <v>22</v>
       </c>
       <c r="K131" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -5149,7 +5155,7 @@
         <v>36</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -5167,7 +5173,7 @@
         <v>28</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -5185,7 +5191,7 @@
         <v>36</v>
       </c>
       <c r="K134" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -5203,7 +5209,7 @@
         <v>26</v>
       </c>
       <c r="K135" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -5221,7 +5227,7 @@
         <v>36</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -5239,7 +5245,7 @@
         <v>20</v>
       </c>
       <c r="K137" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -5257,7 +5263,7 @@
         <v>28</v>
       </c>
       <c r="K138" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -5275,7 +5281,7 @@
         <v>36</v>
       </c>
       <c r="K139" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -5293,7 +5299,7 @@
         <v>26</v>
       </c>
       <c r="K140" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -5311,7 +5317,7 @@
         <v>19</v>
       </c>
       <c r="K141" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -5329,7 +5335,7 @@
         <v>36</v>
       </c>
       <c r="K142" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -5347,7 +5353,7 @@
         <v>28</v>
       </c>
       <c r="K143" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -5365,7 +5371,7 @@
         <v>36</v>
       </c>
       <c r="K144" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -5383,7 +5389,7 @@
         <v>22</v>
       </c>
       <c r="K145" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -5402,7 +5408,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -5420,7 +5426,7 @@
         <v>28</v>
       </c>
       <c r="K147" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -5438,7 +5444,7 @@
         <v>36</v>
       </c>
       <c r="K148" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -5456,7 +5462,7 @@
         <v>28</v>
       </c>
       <c r="K149" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -5474,7 +5480,7 @@
         <v>36</v>
       </c>
       <c r="K150" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -5492,7 +5498,7 @@
         <v>22</v>
       </c>
       <c r="K151" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -5510,7 +5516,7 @@
         <v>36</v>
       </c>
       <c r="K152" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -5528,7 +5534,7 @@
         <v>28</v>
       </c>
       <c r="K153" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -5546,7 +5552,7 @@
         <v>19</v>
       </c>
       <c r="K154" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -5564,7 +5570,7 @@
         <v>36</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -5582,7 +5588,7 @@
         <v>22</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -5600,7 +5606,7 @@
         <v>36</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -5618,7 +5624,7 @@
         <v>25</v>
       </c>
       <c r="K158" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -5636,7 +5642,7 @@
         <v>36</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -5654,7 +5660,7 @@
         <v>28</v>
       </c>
       <c r="K160" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -5672,7 +5678,7 @@
         <v>36</v>
       </c>
       <c r="K161" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -5690,7 +5696,7 @@
         <v>19</v>
       </c>
       <c r="K162" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -5708,7 +5714,7 @@
         <v>36</v>
       </c>
       <c r="K163" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -5727,7 +5733,7 @@
         <v>28</v>
       </c>
       <c r="K164" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -5745,7 +5751,7 @@
         <v>36</v>
       </c>
       <c r="K165" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -5761,7 +5767,7 @@
       </c>
       <c r="D166" s="6"/>
       <c r="K166" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -5779,7 +5785,7 @@
         <v>22</v>
       </c>
       <c r="K167" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -5797,7 +5803,7 @@
         <v>36</v>
       </c>
       <c r="K168" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -5807,12 +5813,12 @@
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="K169" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -6421,7 +6427,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -6448,7 +6454,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -6470,7 +6476,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -6492,7 +6498,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -6518,7 +6524,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -6543,7 +6549,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -6564,7 +6570,7 @@
         <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -6584,7 +6590,7 @@
         <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -6604,7 +6610,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -6625,7 +6631,7 @@
         <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -6646,7 +6652,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -6667,7 +6673,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -6685,7 +6691,7 @@
         <v>25</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -6704,7 +6710,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -6723,7 +6729,7 @@
         <v>25</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -6742,7 +6748,7 @@
         <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -6760,7 +6766,7 @@
         <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -6779,7 +6785,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -6798,7 +6804,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -6816,7 +6822,7 @@
         <v>19</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -6835,7 +6841,7 @@
         <v>36</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -6854,7 +6860,7 @@
         <v>22</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -6873,7 +6879,7 @@
         <v>36</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -6890,7 +6896,7 @@
       </c>
       <c r="D28" s="6"/>
       <c r="K28" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -6908,7 +6914,7 @@
         <v>20</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -6926,7 +6932,7 @@
         <v>36</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -6944,7 +6950,7 @@
         <v>25</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -6962,7 +6968,7 @@
         <v>101</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -6980,7 +6986,7 @@
         <v>20</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -6998,7 +7004,7 @@
         <v>25</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -7016,7 +7022,7 @@
         <v>36</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -7034,7 +7040,7 @@
         <v>25</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -7052,7 +7058,7 @@
         <v>36</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -7070,7 +7076,7 @@
         <v>25</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -7088,7 +7094,7 @@
         <v>36</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -7106,7 +7112,7 @@
         <v>25</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -7124,7 +7130,7 @@
         <v>36</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -7142,7 +7148,7 @@
         <v>22</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -7161,7 +7167,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -7179,7 +7185,7 @@
         <v>28</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -7198,7 +7204,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -7216,7 +7222,7 @@
         <v>25</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -7235,7 +7241,7 @@
         <v>36</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -7253,7 +7259,7 @@
         <v>25</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -7271,7 +7277,7 @@
         <v>28</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -7289,7 +7295,7 @@
         <v>36</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -7307,7 +7313,7 @@
         <v>28</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -7325,7 +7331,7 @@
         <v>36</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -7343,7 +7349,7 @@
         <v>28</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -7361,7 +7367,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -7379,7 +7385,7 @@
         <v>19</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -7397,7 +7403,7 @@
         <v>28</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -7415,7 +7421,7 @@
         <v>36</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -7433,7 +7439,7 @@
         <v>28</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -7451,7 +7457,7 @@
         <v>36</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -7469,7 +7475,7 @@
         <v>19</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -7487,7 +7493,7 @@
         <v>36</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -7505,7 +7511,7 @@
         <v>25</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -7524,7 +7530,7 @@
         <v>36</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -7543,7 +7549,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -7562,7 +7568,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -7581,7 +7587,7 @@
         <v>28</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -7599,7 +7605,7 @@
         <v>25</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -7617,7 +7623,7 @@
         <v>22</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -7636,7 +7642,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -7654,7 +7660,7 @@
         <v>28</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -7672,7 +7678,7 @@
         <v>36</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -7690,7 +7696,7 @@
         <v>22</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -7708,7 +7714,7 @@
         <v>36</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -7725,7 +7731,7 @@
       </c>
       <c r="D74" s="6"/>
       <c r="K74" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -7743,7 +7749,7 @@
         <v>36</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -7761,7 +7767,7 @@
         <v>101</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -7779,7 +7785,7 @@
         <v>36</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -7798,7 +7804,7 @@
         <v>25</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -7817,7 +7823,7 @@
         <v>36</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -7835,7 +7841,7 @@
         <v>25</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -7853,7 +7859,7 @@
         <v>36</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -7871,7 +7877,7 @@
         <v>22</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -7889,7 +7895,7 @@
         <v>28</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -7907,7 +7913,7 @@
         <v>36</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -7925,7 +7931,7 @@
         <v>22</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -7943,7 +7949,7 @@
         <v>36</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -7961,7 +7967,7 @@
         <v>28</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -7977,7 +7983,7 @@
       </c>
       <c r="D88" s="6"/>
       <c r="K88" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -7995,7 +8001,7 @@
         <v>36</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -8011,7 +8017,7 @@
       </c>
       <c r="D90" s="6"/>
       <c r="K90" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -8029,7 +8035,7 @@
         <v>36</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -8045,7 +8051,7 @@
       </c>
       <c r="D92" s="6"/>
       <c r="K92" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -8063,7 +8069,7 @@
         <v>36</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -8081,7 +8087,7 @@
         <v>28</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -8099,7 +8105,7 @@
         <v>36</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -8117,7 +8123,7 @@
         <v>25</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -8135,7 +8141,7 @@
         <v>36</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -8153,7 +8159,7 @@
         <v>28</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -8171,7 +8177,7 @@
         <v>36</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -8189,7 +8195,7 @@
         <v>28</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -8207,7 +8213,7 @@
         <v>36</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -8223,7 +8229,7 @@
       </c>
       <c r="D102" s="6"/>
       <c r="K102" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -8241,7 +8247,7 @@
         <v>28</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -8259,7 +8265,7 @@
         <v>36</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -8275,7 +8281,7 @@
       </c>
       <c r="D105" s="6"/>
       <c r="K105" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -8293,7 +8299,7 @@
         <v>36</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -8311,7 +8317,7 @@
         <v>28</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -8329,7 +8335,7 @@
         <v>36</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -8347,7 +8353,7 @@
         <v>28</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -8366,7 +8372,7 @@
         <v>36</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -8384,7 +8390,7 @@
         <v>28</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -8402,7 +8408,7 @@
         <v>36</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -8420,7 +8426,7 @@
         <v>28</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -8438,7 +8444,7 @@
         <v>36</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -8457,7 +8463,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -8475,7 +8481,7 @@
         <v>36</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -8493,7 +8499,7 @@
         <v>28</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -8512,7 +8518,7 @@
         <v>36</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -8530,7 +8536,7 @@
         <v>28</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -8548,7 +8554,7 @@
         <v>36</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -8566,7 +8572,7 @@
         <v>28</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -8584,7 +8590,7 @@
         <v>36</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -8602,7 +8608,7 @@
         <v>28</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -8620,7 +8626,7 @@
         <v>36</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -8639,7 +8645,7 @@
         <v>23</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8657,7 +8663,7 @@
         <v>36</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8675,7 +8681,7 @@
         <v>28</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8693,7 +8699,7 @@
         <v>36</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -8709,7 +8715,7 @@
       </c>
       <c r="D129" s="6"/>
       <c r="K129" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -8727,7 +8733,7 @@
         <v>36</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -8745,7 +8751,7 @@
         <v>101</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -8763,7 +8769,7 @@
         <v>36</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -8781,7 +8787,7 @@
         <v>28</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -8799,7 +8805,7 @@
         <v>36</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -8817,7 +8823,7 @@
         <v>28</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -8835,7 +8841,7 @@
         <v>36</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -8853,7 +8859,7 @@
         <v>28</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -8871,7 +8877,7 @@
         <v>36</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -8889,7 +8895,7 @@
         <v>28</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -8907,7 +8913,7 @@
         <v>36</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -8925,7 +8931,7 @@
         <v>28</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -8943,7 +8949,7 @@
         <v>36</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -8961,7 +8967,7 @@
         <v>28</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -8979,7 +8985,7 @@
         <v>101</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -8997,7 +9003,7 @@
         <v>36</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -9008,12 +9014,12 @@
       <c r="D146" s="6"/>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -9648,7 +9654,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="J195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C207" sqref="C207"/>
+      <selection pane="bottomRight" activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9783,7 +9789,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -9810,7 +9816,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -9832,7 +9838,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -9854,7 +9860,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -9880,7 +9886,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -9905,7 +9911,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -9926,7 +9932,7 @@
         <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -9946,7 +9952,7 @@
         <v>101</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -9966,7 +9972,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -9987,7 +9993,7 @@
         <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -10008,7 +10014,7 @@
         <v>101</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -10029,7 +10035,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -10047,7 +10053,7 @@
         <v>22</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10066,7 +10072,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -10085,7 +10091,7 @@
         <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -10104,7 +10110,7 @@
         <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10120,7 +10126,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="K21" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10139,7 +10145,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10158,7 +10164,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -10176,7 +10182,7 @@
         <v>36</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -10195,7 +10201,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -10214,7 +10220,7 @@
         <v>36</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -10233,7 +10239,7 @@
         <v>28</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -10252,7 +10258,7 @@
         <v>22</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -10270,7 +10276,7 @@
         <v>36</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -10288,7 +10294,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -10306,7 +10312,7 @@
         <v>22</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -10324,7 +10330,7 @@
         <v>101</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -10342,7 +10348,7 @@
         <v>36</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -10360,7 +10366,7 @@
         <v>28</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -10378,7 +10384,7 @@
         <v>36</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -10396,7 +10402,7 @@
         <v>28</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -10414,7 +10420,7 @@
         <v>36</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -10430,7 +10436,7 @@
       </c>
       <c r="D38" s="6"/>
       <c r="K38" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -10448,7 +10454,7 @@
         <v>36</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -10456,7 +10462,7 @@
         <v>686</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C40" s="6">
         <f t="shared" si="0"/>
@@ -10464,7 +10470,7 @@
       </c>
       <c r="D40" s="6"/>
       <c r="K40" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -10482,7 +10488,7 @@
         <v>36</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -10490,7 +10496,7 @@
         <v>710</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C42" s="6">
         <f t="shared" si="0"/>
@@ -10498,7 +10504,7 @@
       </c>
       <c r="D42" s="6"/>
       <c r="K42" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -10517,7 +10523,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -10535,7 +10541,7 @@
         <v>28</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -10554,7 +10560,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -10572,7 +10578,7 @@
         <v>36</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -10591,7 +10597,7 @@
         <v>28</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -10609,7 +10615,7 @@
         <v>36</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -10627,7 +10633,7 @@
         <v>28</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -10645,7 +10651,7 @@
         <v>36</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -10663,7 +10669,7 @@
         <v>28</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -10681,7 +10687,7 @@
         <v>36</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -10699,7 +10705,7 @@
         <v>28</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -10717,7 +10723,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -10735,7 +10741,7 @@
         <v>28</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -10753,7 +10759,7 @@
         <v>36</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -10771,7 +10777,7 @@
         <v>28</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -10789,7 +10795,7 @@
         <v>36</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -10807,7 +10813,7 @@
         <v>28</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -10825,7 +10831,7 @@
         <v>36</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -10843,7 +10849,7 @@
         <v>28</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -10859,7 +10865,7 @@
       </c>
       <c r="D62" s="6"/>
       <c r="K62" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -10878,7 +10884,7 @@
         <v>101</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -10897,7 +10903,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -10916,7 +10922,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -10935,7 +10941,7 @@
         <v>36</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -10953,7 +10959,7 @@
         <v>28</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -10971,7 +10977,7 @@
         <v>36</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -10990,7 +10996,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -11008,7 +11014,7 @@
         <v>36</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -11026,7 +11032,7 @@
         <v>28</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -11044,7 +11050,7 @@
         <v>36</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -11062,7 +11068,7 @@
         <v>19</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -11081,7 +11087,7 @@
         <v>36</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -11099,7 +11105,7 @@
         <v>28</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -11117,7 +11123,7 @@
         <v>36</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -11135,7 +11141,7 @@
         <v>22</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -11154,7 +11160,7 @@
         <v>36</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -11173,10 +11179,10 @@
         <v>28</v>
       </c>
       <c r="K79" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="L79" s="13" t="s">
         <v>675</v>
-      </c>
-      <c r="L79" s="13" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -11194,10 +11200,10 @@
         <v>36</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L80" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -11215,7 +11221,7 @@
         <v>28</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -11233,7 +11239,7 @@
         <v>36</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -11251,7 +11257,7 @@
         <v>28</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -11269,7 +11275,7 @@
         <v>36</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -11287,7 +11293,7 @@
         <v>28</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -11305,7 +11311,7 @@
         <v>36</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -11323,7 +11329,7 @@
         <v>22</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -11341,7 +11347,7 @@
         <v>36</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -11359,7 +11365,7 @@
         <v>22</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -11377,7 +11383,7 @@
         <v>22</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -11395,7 +11401,7 @@
         <v>28</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -11413,7 +11419,7 @@
         <v>36</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -11431,7 +11437,7 @@
         <v>28</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -11449,7 +11455,7 @@
         <v>36</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -11467,7 +11473,7 @@
         <v>22</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -11485,7 +11491,7 @@
         <v>36</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -11503,7 +11509,7 @@
         <v>28</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -11521,7 +11527,7 @@
         <v>36</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -11539,7 +11545,7 @@
         <v>28</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -11557,7 +11563,7 @@
         <v>36</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -11575,7 +11581,7 @@
         <v>28</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -11593,7 +11599,7 @@
         <v>36</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -11611,7 +11617,7 @@
         <v>28</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -11629,7 +11635,7 @@
         <v>36</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -11647,7 +11653,7 @@
         <v>28</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -11665,7 +11671,7 @@
         <v>25</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -11683,7 +11689,7 @@
         <v>36</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -11701,7 +11707,7 @@
         <v>22</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -11719,7 +11725,7 @@
         <v>36</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -11738,7 +11744,7 @@
         <v>28</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -11756,7 +11762,7 @@
         <v>36</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -11774,7 +11780,7 @@
         <v>28</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -11792,7 +11798,7 @@
         <v>36</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -11810,7 +11816,7 @@
         <v>28</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -11829,7 +11835,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -11847,7 +11853,7 @@
         <v>28</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -11865,7 +11871,7 @@
         <v>36</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -11884,7 +11890,7 @@
         <v>28</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -11902,7 +11908,7 @@
         <v>22</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -11920,7 +11926,7 @@
         <v>36</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -11938,7 +11944,7 @@
         <v>28</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -11956,7 +11962,7 @@
         <v>36</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -11974,7 +11980,7 @@
         <v>28</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -11992,7 +11998,7 @@
         <v>36</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -12011,7 +12017,7 @@
         <v>28</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -12029,7 +12035,7 @@
         <v>36</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -12047,7 +12053,7 @@
         <v>28</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -12065,7 +12071,7 @@
         <v>36</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -12083,7 +12089,7 @@
         <v>28</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -12101,7 +12107,7 @@
         <v>36</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -12119,7 +12125,7 @@
         <v>28</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -12137,7 +12143,7 @@
         <v>36</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -12155,7 +12161,7 @@
         <v>28</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -12173,7 +12179,7 @@
         <v>36</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -12191,7 +12197,7 @@
         <v>22</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -12209,7 +12215,7 @@
         <v>36</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -12227,7 +12233,7 @@
         <v>28</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -12245,7 +12251,7 @@
         <v>36</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -12263,7 +12269,7 @@
         <v>28</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -12281,7 +12287,7 @@
         <v>36</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -12299,7 +12305,7 @@
         <v>28</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -12317,7 +12323,7 @@
         <v>36</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -12335,7 +12341,7 @@
         <v>28</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -12353,7 +12359,7 @@
         <v>36</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -12371,7 +12377,7 @@
         <v>28</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -12390,7 +12396,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -12408,7 +12414,7 @@
         <v>28</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -12426,7 +12432,7 @@
         <v>36</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -12444,7 +12450,7 @@
         <v>28</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -12462,7 +12468,7 @@
         <v>22</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -12480,7 +12486,7 @@
         <v>36</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -12498,7 +12504,7 @@
         <v>101</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -12516,7 +12522,7 @@
         <v>36</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -12534,7 +12540,7 @@
         <v>28</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -12552,7 +12558,7 @@
         <v>22</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -12570,7 +12576,7 @@
         <v>36</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -12588,7 +12594,7 @@
         <v>28</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -12606,7 +12612,7 @@
         <v>36</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -12624,7 +12630,7 @@
         <v>28</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -12642,7 +12648,7 @@
         <v>36</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -12660,7 +12666,7 @@
         <v>22</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -12678,7 +12684,7 @@
         <v>28</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -12696,7 +12702,7 @@
         <v>22</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -12715,7 +12721,7 @@
         <v>36</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -12733,7 +12739,7 @@
         <v>28</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -12751,7 +12757,7 @@
         <v>36</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -12769,7 +12775,7 @@
         <v>28</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -12787,7 +12793,7 @@
         <v>36</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -12805,7 +12811,7 @@
         <v>101</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -12823,7 +12829,7 @@
         <v>28</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -12841,7 +12847,7 @@
         <v>36</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -12859,7 +12865,7 @@
         <v>28</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -12877,7 +12883,7 @@
         <v>36</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -12895,7 +12901,7 @@
         <v>28</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -12913,7 +12919,7 @@
         <v>36</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -12931,7 +12937,7 @@
         <v>23</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -12949,7 +12955,7 @@
         <v>36</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -12967,7 +12973,7 @@
         <v>28</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -12985,7 +12991,7 @@
         <v>36</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -13003,7 +13009,7 @@
         <v>28</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -13021,7 +13027,7 @@
         <v>101</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -13039,7 +13045,7 @@
         <v>28</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -13057,7 +13063,7 @@
         <v>22</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -13075,7 +13081,7 @@
         <v>36</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -13093,7 +13099,7 @@
         <v>22</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -13111,7 +13117,7 @@
         <v>36</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -13129,7 +13135,7 @@
         <v>28</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -13147,7 +13153,7 @@
         <v>36</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -13165,7 +13171,7 @@
         <v>28</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -13183,7 +13189,7 @@
         <v>36</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -13201,7 +13207,7 @@
         <v>28</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -13219,7 +13225,7 @@
         <v>36</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -13237,7 +13243,7 @@
         <v>28</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -13255,7 +13261,7 @@
         <v>36</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -13273,7 +13279,7 @@
         <v>24</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -13291,7 +13297,7 @@
         <v>28</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -13309,7 +13315,7 @@
         <v>36</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -13327,7 +13333,7 @@
         <v>101</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -13345,7 +13351,7 @@
         <v>36</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -13363,7 +13369,7 @@
         <v>22</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -13381,7 +13387,7 @@
         <v>28</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -13399,7 +13405,7 @@
         <v>36</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -13417,7 +13423,7 @@
         <v>28</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -13435,7 +13441,7 @@
         <v>36</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -13451,7 +13457,7 @@
       </c>
       <c r="D205" s="6"/>
       <c r="K205" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L205" s="13" t="s">
         <v>108</v>
@@ -13472,7 +13478,7 @@
         <v>28</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -13490,7 +13496,7 @@
         <v>36</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -13499,11 +13505,9 @@
       </c>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
-      <c r="D208" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="D208" s="1"/>
       <c r="K208" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
@@ -18037,11 +18041,11 @@
   </sheetPr>
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H282" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="H99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D305" sqref="D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19936,7 +19940,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="K99" s="16" t="s">
         <v>199</v>
@@ -20011,7 +20015,7 @@
         <v>24</v>
       </c>
       <c r="K103" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20029,7 +20033,7 @@
         <v>101</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20047,7 +20051,7 @@
         <v>22</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20065,7 +20069,7 @@
         <v>20</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20083,7 +20087,7 @@
         <v>101</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20101,7 +20105,7 @@
         <v>28</v>
       </c>
       <c r="K108" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20119,7 +20123,7 @@
         <v>36</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -20138,7 +20142,7 @@
         <v>22</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20156,7 +20160,7 @@
         <v>26</v>
       </c>
       <c r="K111" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20174,7 +20178,7 @@
         <v>28</v>
       </c>
       <c r="K112" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20192,7 +20196,7 @@
         <v>101</v>
       </c>
       <c r="K113" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20210,7 +20214,7 @@
         <v>20</v>
       </c>
       <c r="K114" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20229,7 +20233,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20247,7 +20251,7 @@
         <v>19</v>
       </c>
       <c r="K116" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20265,7 +20269,7 @@
         <v>22</v>
       </c>
       <c r="K117" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -20284,7 +20288,7 @@
         <v>20</v>
       </c>
       <c r="K118" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20292,7 +20296,7 @@
         <v>955</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C119" s="6">
         <f t="shared" si="1"/>
@@ -20316,7 +20320,7 @@
         <v>22</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20334,7 +20338,7 @@
         <v>25</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20352,7 +20356,7 @@
         <v>36</v>
       </c>
       <c r="K122" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20370,7 +20374,7 @@
         <v>22</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20388,7 +20392,7 @@
         <v>36</v>
       </c>
       <c r="K124" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -20407,7 +20411,7 @@
         <v>22</v>
       </c>
       <c r="K125" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20425,7 +20429,7 @@
         <v>28</v>
       </c>
       <c r="K126" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20443,7 +20447,7 @@
         <v>36</v>
       </c>
       <c r="K127" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20459,7 +20463,7 @@
       </c>
       <c r="D128" s="6"/>
       <c r="K128" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20477,7 +20481,7 @@
         <v>22</v>
       </c>
       <c r="K129" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20495,7 +20499,7 @@
         <v>19</v>
       </c>
       <c r="K130" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20511,7 +20515,7 @@
       </c>
       <c r="D131" s="6"/>
       <c r="K131" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20529,7 +20533,7 @@
         <v>36</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20547,7 +20551,7 @@
         <v>28</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20565,7 +20569,7 @@
         <v>36</v>
       </c>
       <c r="K134" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20583,7 +20587,7 @@
         <v>28</v>
       </c>
       <c r="K135" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20601,7 +20605,7 @@
         <v>19</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L136" s="15" t="s">
         <v>40</v>
@@ -20622,7 +20626,7 @@
         <v>28</v>
       </c>
       <c r="K137" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L137" s="15" t="s">
         <v>40</v>
@@ -20641,7 +20645,7 @@
       </c>
       <c r="D138" s="6"/>
       <c r="K138" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20659,7 +20663,7 @@
         <v>101</v>
       </c>
       <c r="K139" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20677,7 +20681,7 @@
         <v>36</v>
       </c>
       <c r="K140" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20695,7 +20699,7 @@
         <v>28</v>
       </c>
       <c r="K141" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20713,7 +20717,7 @@
         <v>36</v>
       </c>
       <c r="K142" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20731,7 +20735,7 @@
         <v>28</v>
       </c>
       <c r="K143" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20749,7 +20753,7 @@
         <v>24</v>
       </c>
       <c r="K144" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20767,7 +20771,7 @@
         <v>28</v>
       </c>
       <c r="K145" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20786,7 +20790,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20804,7 +20808,7 @@
         <v>28</v>
       </c>
       <c r="K147" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L147" s="18" t="s">
         <v>40</v>
@@ -20825,7 +20829,7 @@
         <v>25</v>
       </c>
       <c r="K148" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L148" s="18" t="s">
         <v>40</v>
@@ -20846,7 +20850,7 @@
         <v>28</v>
       </c>
       <c r="K149" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20864,7 +20868,7 @@
         <v>22</v>
       </c>
       <c r="K150" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20882,7 +20886,7 @@
         <v>36</v>
       </c>
       <c r="K151" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20900,7 +20904,7 @@
         <v>22</v>
       </c>
       <c r="K152" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20918,7 +20922,7 @@
         <v>36</v>
       </c>
       <c r="K153" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20936,7 +20940,7 @@
         <v>28</v>
       </c>
       <c r="K154" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20954,7 +20958,7 @@
         <v>36</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20972,7 +20976,7 @@
         <v>22</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20990,7 +20994,7 @@
         <v>36</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21006,7 +21010,7 @@
       </c>
       <c r="D158" s="6"/>
       <c r="K158" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21024,7 +21028,7 @@
         <v>24</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21042,7 +21046,7 @@
         <v>101</v>
       </c>
       <c r="K160" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21060,7 +21064,7 @@
         <v>28</v>
       </c>
       <c r="K161" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21078,7 +21082,7 @@
         <v>36</v>
       </c>
       <c r="K162" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21096,7 +21100,7 @@
         <v>19</v>
       </c>
       <c r="K163" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -21115,7 +21119,7 @@
         <v>28</v>
       </c>
       <c r="K164" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21133,7 +21137,7 @@
         <v>101</v>
       </c>
       <c r="K165" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21151,7 +21155,7 @@
         <v>28</v>
       </c>
       <c r="K166" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21169,7 +21173,7 @@
         <v>24</v>
       </c>
       <c r="K167" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21187,7 +21191,7 @@
         <v>28</v>
       </c>
       <c r="K168" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21205,7 +21209,7 @@
         <v>36</v>
       </c>
       <c r="K169" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21223,7 +21227,7 @@
         <v>20</v>
       </c>
       <c r="K170" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21241,7 +21245,7 @@
         <v>36</v>
       </c>
       <c r="K171" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21259,7 +21263,7 @@
         <v>22</v>
       </c>
       <c r="K172" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21277,7 +21281,7 @@
         <v>36</v>
       </c>
       <c r="K173" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21293,7 +21297,7 @@
       </c>
       <c r="D174" s="6"/>
       <c r="K174" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21311,7 +21315,7 @@
         <v>36</v>
       </c>
       <c r="K175" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21329,7 +21333,7 @@
         <v>22</v>
       </c>
       <c r="K176" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21347,7 +21351,7 @@
         <v>23</v>
       </c>
       <c r="K177" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21365,7 +21369,7 @@
         <v>36</v>
       </c>
       <c r="K178" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21383,7 +21387,7 @@
         <v>22</v>
       </c>
       <c r="K179" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21401,7 +21405,7 @@
         <v>101</v>
       </c>
       <c r="K180" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21419,7 +21423,7 @@
         <v>28</v>
       </c>
       <c r="K181" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21437,7 +21441,7 @@
         <v>22</v>
       </c>
       <c r="K182" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21455,7 +21459,7 @@
         <v>19</v>
       </c>
       <c r="K183" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21473,7 +21477,7 @@
         <v>36</v>
       </c>
       <c r="K184" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21491,7 +21495,7 @@
         <v>22</v>
       </c>
       <c r="K185" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21509,7 +21513,7 @@
         <v>22</v>
       </c>
       <c r="K186" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21527,7 +21531,7 @@
         <v>25</v>
       </c>
       <c r="K187" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21545,7 +21549,7 @@
         <v>22</v>
       </c>
       <c r="K188" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21563,7 +21567,7 @@
         <v>36</v>
       </c>
       <c r="K189" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21581,7 +21585,7 @@
         <v>22</v>
       </c>
       <c r="K190" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21599,7 +21603,7 @@
         <v>28</v>
       </c>
       <c r="K191" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21617,7 +21621,7 @@
         <v>36</v>
       </c>
       <c r="K192" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21635,7 +21639,7 @@
         <v>22</v>
       </c>
       <c r="K193" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21653,7 +21657,7 @@
         <v>22</v>
       </c>
       <c r="K194" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21671,7 +21675,7 @@
         <v>36</v>
       </c>
       <c r="K195" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21687,7 +21691,7 @@
       </c>
       <c r="D196" s="1"/>
       <c r="K196" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21705,7 +21709,7 @@
         <v>36</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21723,7 +21727,7 @@
         <v>25</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21741,7 +21745,7 @@
         <v>28</v>
       </c>
       <c r="K199" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21759,7 +21763,7 @@
         <v>22</v>
       </c>
       <c r="K200" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21777,7 +21781,7 @@
         <v>36</v>
       </c>
       <c r="K201" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21795,7 +21799,7 @@
         <v>22</v>
       </c>
       <c r="K202" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21813,7 +21817,7 @@
         <v>28</v>
       </c>
       <c r="K203" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21829,7 +21833,7 @@
       </c>
       <c r="D204" s="6"/>
       <c r="K204" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21847,7 +21851,7 @@
         <v>25</v>
       </c>
       <c r="K205" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21865,7 +21869,7 @@
         <v>19</v>
       </c>
       <c r="K206" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21883,7 +21887,7 @@
         <v>28</v>
       </c>
       <c r="K207" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -21901,7 +21905,7 @@
         <v>36</v>
       </c>
       <c r="K208" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21919,7 +21923,7 @@
         <v>25</v>
       </c>
       <c r="K209" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21937,7 +21941,7 @@
         <v>19</v>
       </c>
       <c r="K210" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21955,7 +21959,7 @@
         <v>36</v>
       </c>
       <c r="K211" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21973,7 +21977,7 @@
         <v>24</v>
       </c>
       <c r="K212" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -21991,7 +21995,7 @@
         <v>36</v>
       </c>
       <c r="K213" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -22009,7 +22013,7 @@
         <v>28</v>
       </c>
       <c r="K214" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -22027,7 +22031,7 @@
         <v>36</v>
       </c>
       <c r="K215" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -22043,7 +22047,7 @@
       </c>
       <c r="D216" s="1"/>
       <c r="K216" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -22061,7 +22065,7 @@
         <v>36</v>
       </c>
       <c r="K217" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -22077,7 +22081,7 @@
       </c>
       <c r="D218" s="6"/>
       <c r="K218" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -22095,7 +22099,7 @@
         <v>36</v>
       </c>
       <c r="K219" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L219" s="6"/>
     </row>
@@ -22114,7 +22118,7 @@
         <v>19</v>
       </c>
       <c r="K220" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -22132,7 +22136,7 @@
         <v>36</v>
       </c>
       <c r="K221" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -22150,7 +22154,7 @@
         <v>22</v>
       </c>
       <c r="K222" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -22168,7 +22172,7 @@
         <v>28</v>
       </c>
       <c r="K223" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -22186,7 +22190,7 @@
         <v>23</v>
       </c>
       <c r="K224" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -22204,7 +22208,7 @@
         <v>28</v>
       </c>
       <c r="K225" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -22222,7 +22226,7 @@
         <v>20</v>
       </c>
       <c r="K226" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -22240,7 +22244,7 @@
         <v>28</v>
       </c>
       <c r="K227" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -22258,7 +22262,7 @@
         <v>20</v>
       </c>
       <c r="K228" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -22276,7 +22280,7 @@
         <v>28</v>
       </c>
       <c r="K229" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -22294,7 +22298,7 @@
         <v>19</v>
       </c>
       <c r="K230" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -22312,7 +22316,7 @@
         <v>28</v>
       </c>
       <c r="K231" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -22328,7 +22332,7 @@
       </c>
       <c r="D232" s="6"/>
       <c r="K232" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -22346,7 +22350,7 @@
         <v>28</v>
       </c>
       <c r="K233" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -22364,7 +22368,7 @@
         <v>36</v>
       </c>
       <c r="K234" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -22382,7 +22386,7 @@
         <v>28</v>
       </c>
       <c r="K235" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22400,7 +22404,7 @@
         <v>36</v>
       </c>
       <c r="K236" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22418,7 +22422,7 @@
         <v>101</v>
       </c>
       <c r="K237" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22436,7 +22440,7 @@
         <v>36</v>
       </c>
       <c r="K238" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22454,7 +22458,7 @@
         <v>28</v>
       </c>
       <c r="K239" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22472,7 +22476,7 @@
         <v>36</v>
       </c>
       <c r="K240" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22490,7 +22494,7 @@
         <v>28</v>
       </c>
       <c r="K241" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22505,13 +22509,13 @@
         <v>5</v>
       </c>
       <c r="F242" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H242" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K242" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22529,7 +22533,7 @@
         <v>36</v>
       </c>
       <c r="K243" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22547,7 +22551,7 @@
         <v>22</v>
       </c>
       <c r="K244" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22565,7 +22569,7 @@
         <v>101</v>
       </c>
       <c r="K245" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22583,7 +22587,7 @@
         <v>19</v>
       </c>
       <c r="K246" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22601,7 +22605,7 @@
         <v>36</v>
       </c>
       <c r="K247" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22619,7 +22623,7 @@
         <v>25</v>
       </c>
       <c r="K248" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22637,7 +22641,7 @@
         <v>25</v>
       </c>
       <c r="K249" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22655,7 +22659,7 @@
         <v>22</v>
       </c>
       <c r="K250" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22673,7 +22677,7 @@
         <v>36</v>
       </c>
       <c r="K251" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22691,7 +22695,7 @@
         <v>22</v>
       </c>
       <c r="K252" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22709,7 +22713,7 @@
         <v>36</v>
       </c>
       <c r="K253" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22727,7 +22731,7 @@
         <v>22</v>
       </c>
       <c r="K254" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22745,7 +22749,7 @@
         <v>23</v>
       </c>
       <c r="K255" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22763,7 +22767,7 @@
         <v>36</v>
       </c>
       <c r="K256" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22781,7 +22785,7 @@
         <v>22</v>
       </c>
       <c r="K257" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22799,7 +22803,7 @@
         <v>36</v>
       </c>
       <c r="K258" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22817,7 +22821,7 @@
         <v>28</v>
       </c>
       <c r="K259" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22835,7 +22839,7 @@
         <v>22</v>
       </c>
       <c r="K260" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22853,7 +22857,7 @@
         <v>19</v>
       </c>
       <c r="K261" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22871,7 +22875,7 @@
         <v>28</v>
       </c>
       <c r="K262" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22889,7 +22893,7 @@
         <v>36</v>
       </c>
       <c r="K263" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22907,7 +22911,7 @@
         <v>28</v>
       </c>
       <c r="K264" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22925,7 +22929,7 @@
         <v>36</v>
       </c>
       <c r="K265" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22943,7 +22947,7 @@
         <v>28</v>
       </c>
       <c r="K266" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22961,7 +22965,7 @@
         <v>25</v>
       </c>
       <c r="K267" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22979,7 +22983,7 @@
         <v>25</v>
       </c>
       <c r="K268" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22997,7 +23001,7 @@
         <v>101</v>
       </c>
       <c r="K269" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23015,7 +23019,7 @@
         <v>19</v>
       </c>
       <c r="K270" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23033,7 +23037,7 @@
         <v>36</v>
       </c>
       <c r="K271" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23048,7 +23052,7 @@
         <v>22</v>
       </c>
       <c r="K272" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23066,7 +23070,7 @@
         <v>36</v>
       </c>
       <c r="K273" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="274" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23084,7 +23088,7 @@
         <v>25</v>
       </c>
       <c r="K274" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="275" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23102,7 +23106,7 @@
         <v>28</v>
       </c>
       <c r="K275" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23120,7 +23124,7 @@
         <v>36</v>
       </c>
       <c r="K276" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23138,7 +23142,7 @@
         <v>22</v>
       </c>
       <c r="K277" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23156,7 +23160,7 @@
         <v>25</v>
       </c>
       <c r="K278" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23174,7 +23178,7 @@
         <v>25</v>
       </c>
       <c r="K279" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23192,7 +23196,7 @@
         <v>28</v>
       </c>
       <c r="K280" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23210,7 +23214,7 @@
         <v>101</v>
       </c>
       <c r="K281" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23228,7 +23232,7 @@
         <v>36</v>
       </c>
       <c r="K282" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L282" s="15" t="s">
         <v>40</v>
@@ -23249,7 +23253,7 @@
         <v>22</v>
       </c>
       <c r="K283" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L283" s="15" t="s">
         <v>40</v>
@@ -23270,7 +23274,7 @@
         <v>28</v>
       </c>
       <c r="K284" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23288,7 +23292,7 @@
         <v>22</v>
       </c>
       <c r="K285" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23306,7 +23310,7 @@
         <v>22</v>
       </c>
       <c r="K286" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23324,7 +23328,7 @@
         <v>28</v>
       </c>
       <c r="K287" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="288" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23342,7 +23346,7 @@
         <v>36</v>
       </c>
       <c r="K288" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23360,7 +23364,7 @@
         <v>25</v>
       </c>
       <c r="K289" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23378,7 +23382,7 @@
         <v>22</v>
       </c>
       <c r="K290" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L290" s="18" t="s">
         <v>40</v>
@@ -23399,7 +23403,7 @@
         <v>36</v>
       </c>
       <c r="K291" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L291" s="18" t="s">
         <v>40</v>
@@ -23420,7 +23424,7 @@
         <v>25</v>
       </c>
       <c r="K292" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23438,7 +23442,7 @@
         <v>36</v>
       </c>
       <c r="K293" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23456,7 +23460,7 @@
         <v>25</v>
       </c>
       <c r="K294" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23474,7 +23478,7 @@
         <v>36</v>
       </c>
       <c r="K295" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23492,7 +23496,7 @@
         <v>28</v>
       </c>
       <c r="K296" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23507,7 +23511,7 @@
         <v>7</v>
       </c>
       <c r="K297" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23525,7 +23529,7 @@
         <v>101</v>
       </c>
       <c r="K298" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23543,7 +23547,7 @@
         <v>22</v>
       </c>
       <c r="K299" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23561,7 +23565,7 @@
         <v>101</v>
       </c>
       <c r="K300" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23579,7 +23583,7 @@
         <v>23</v>
       </c>
       <c r="K301" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23597,7 +23601,7 @@
         <v>19</v>
       </c>
       <c r="K302" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23607,10 +23611,11 @@
     </row>
     <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U304" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -23621,13 +23626,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U313"/>
+  <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B176" sqref="B176"/>
+      <selection pane="bottomRight" activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23762,7 +23767,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -23789,7 +23794,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -23811,7 +23816,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -23833,7 +23838,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -23859,7 +23864,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -23884,7 +23889,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -23905,7 +23910,7 @@
         <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -23925,7 +23930,7 @@
         <v>19</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -23945,7 +23950,7 @@
         <v>36</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -23966,7 +23971,7 @@
         <v>22</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -23987,7 +23992,7 @@
         <v>36</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -24008,7 +24013,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24016,7 +24021,7 @@
         <v>158</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
@@ -24024,7 +24029,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="K17" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24043,7 +24048,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -24062,7 +24067,7 @@
         <v>26</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -24081,7 +24086,7 @@
         <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24099,7 +24104,7 @@
         <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24118,7 +24123,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24137,7 +24142,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24155,7 +24160,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -24174,7 +24179,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -24193,7 +24198,7 @@
         <v>22</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -24212,7 +24217,7 @@
         <v>36</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -24231,7 +24236,7 @@
         <v>22</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24249,7 +24254,7 @@
         <v>19</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24265,7 +24270,7 @@
       </c>
       <c r="D30" s="6"/>
       <c r="K30" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24283,7 +24288,7 @@
         <v>36</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24301,7 +24306,7 @@
         <v>22</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24319,7 +24324,7 @@
         <v>28</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24337,7 +24342,7 @@
         <v>36</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24355,7 +24360,7 @@
         <v>28</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24373,7 +24378,7 @@
         <v>36</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24391,7 +24396,7 @@
         <v>22</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24409,7 +24414,7 @@
         <v>28</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24427,7 +24432,7 @@
         <v>36</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24445,7 +24450,7 @@
         <v>19</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24463,7 +24468,7 @@
         <v>36</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24481,7 +24486,7 @@
         <v>28</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -24500,7 +24505,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24518,7 +24523,7 @@
         <v>25</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24537,7 +24542,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24555,7 +24560,7 @@
         <v>28</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -24574,7 +24579,7 @@
         <v>19</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24592,7 +24597,7 @@
         <v>36</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24610,7 +24615,7 @@
         <v>26</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24628,7 +24633,7 @@
         <v>36</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24646,7 +24651,7 @@
         <v>28</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24664,7 +24669,7 @@
         <v>19</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24682,7 +24687,7 @@
         <v>28</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24700,7 +24705,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24718,7 +24723,7 @@
         <v>28</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24736,7 +24741,7 @@
         <v>22</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24754,7 +24759,7 @@
         <v>19</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24772,7 +24777,7 @@
         <v>36</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24790,7 +24795,7 @@
         <v>28</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24808,7 +24813,7 @@
         <v>36</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24826,7 +24831,7 @@
         <v>28</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24844,7 +24849,7 @@
         <v>24</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -24863,7 +24868,7 @@
         <v>36</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24882,7 +24887,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24901,7 +24906,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -24920,7 +24925,7 @@
         <v>36</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24938,7 +24943,7 @@
         <v>22</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24956,7 +24961,7 @@
         <v>25</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24975,7 +24980,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -24993,7 +24998,7 @@
         <v>22</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25011,7 +25016,7 @@
         <v>36</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25029,7 +25034,7 @@
         <v>22</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25047,7 +25052,7 @@
         <v>28</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -25066,7 +25071,7 @@
         <v>22</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25084,7 +25089,7 @@
         <v>28</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25102,7 +25107,7 @@
         <v>22</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25120,7 +25125,7 @@
         <v>36</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -25139,7 +25144,7 @@
         <v>24</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -25158,7 +25163,7 @@
         <v>22</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25176,7 +25181,7 @@
         <v>36</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25194,7 +25199,7 @@
         <v>28</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25212,7 +25217,7 @@
         <v>23</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25230,7 +25235,7 @@
         <v>28</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25248,7 +25253,7 @@
         <v>23</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25266,7 +25271,7 @@
         <v>36</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25284,7 +25289,7 @@
         <v>28</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25302,7 +25307,7 @@
         <v>36</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25320,7 +25325,7 @@
         <v>28</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25338,7 +25343,7 @@
         <v>36</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25356,7 +25361,7 @@
         <v>28</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25374,10 +25379,10 @@
         <v>36</v>
       </c>
       <c r="K91" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L91" t="s">
         <v>336</v>
-      </c>
-      <c r="L91" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25395,7 +25400,7 @@
         <v>36</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25413,7 +25418,7 @@
         <v>28</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25431,7 +25436,7 @@
         <v>36</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25449,7 +25454,7 @@
         <v>28</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25467,7 +25472,7 @@
         <v>22</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25485,7 +25490,7 @@
         <v>22</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25503,7 +25508,7 @@
         <v>101</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25521,7 +25526,7 @@
         <v>22</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25539,7 +25544,7 @@
         <v>28</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25557,7 +25562,7 @@
         <v>25</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25575,7 +25580,7 @@
         <v>36</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25593,7 +25598,7 @@
         <v>24</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25611,7 +25616,7 @@
         <v>101</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25629,7 +25634,7 @@
         <v>25</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25647,7 +25652,7 @@
         <v>36</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25665,7 +25670,7 @@
         <v>23</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25683,7 +25688,7 @@
         <v>36</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25701,7 +25706,7 @@
         <v>28</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -25720,7 +25725,7 @@
         <v>36</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25738,7 +25743,7 @@
         <v>28</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25756,7 +25761,7 @@
         <v>36</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25772,7 +25777,7 @@
       </c>
       <c r="D113" s="6"/>
       <c r="K113" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25790,7 +25795,7 @@
         <v>36</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25809,7 +25814,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25827,7 +25832,7 @@
         <v>25</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25845,7 +25850,7 @@
         <v>22</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -25864,7 +25869,7 @@
         <v>36</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25882,7 +25887,7 @@
         <v>28</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25900,7 +25905,7 @@
         <v>36</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25918,7 +25923,7 @@
         <v>20</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25936,7 +25941,7 @@
         <v>19</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25954,7 +25959,7 @@
         <v>36</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -25972,7 +25977,7 @@
         <v>25</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -25991,7 +25996,7 @@
         <v>22</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26009,7 +26014,7 @@
         <v>36</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26027,7 +26032,7 @@
         <v>22</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26045,7 +26050,7 @@
         <v>36</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26063,7 +26068,7 @@
         <v>101</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26081,7 +26086,7 @@
         <v>36</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26099,7 +26104,7 @@
         <v>22</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26117,7 +26122,7 @@
         <v>36</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26135,7 +26140,7 @@
         <v>28</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26153,7 +26158,7 @@
         <v>36</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26171,7 +26176,7 @@
         <v>24</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26189,7 +26194,7 @@
         <v>36</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26207,7 +26212,7 @@
         <v>28</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26225,7 +26230,7 @@
         <v>36</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26243,7 +26248,7 @@
         <v>20</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26261,7 +26266,7 @@
         <v>22</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26279,7 +26284,7 @@
         <v>28</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26297,7 +26302,7 @@
         <v>19</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26315,7 +26320,7 @@
         <v>22</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26333,7 +26338,7 @@
         <v>28</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26351,7 +26356,7 @@
         <v>22</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26370,7 +26375,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26388,7 +26393,7 @@
         <v>22</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26406,7 +26411,7 @@
         <v>28</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26424,7 +26429,7 @@
         <v>19</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26442,7 +26447,7 @@
         <v>36</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26460,7 +26465,7 @@
         <v>22</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26478,7 +26483,7 @@
         <v>36</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26496,7 +26501,7 @@
         <v>20</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26514,7 +26519,7 @@
         <v>22</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26532,7 +26537,7 @@
         <v>25</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26550,7 +26555,7 @@
         <v>36</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26568,7 +26573,7 @@
         <v>28</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26586,7 +26591,7 @@
         <v>24</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26604,7 +26609,7 @@
         <v>36</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26622,7 +26627,7 @@
         <v>23</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26640,7 +26645,7 @@
         <v>28</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26658,7 +26663,7 @@
         <v>19</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26676,7 +26681,7 @@
         <v>22</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -26695,7 +26700,7 @@
         <v>22</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26713,7 +26718,7 @@
         <v>28</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26731,7 +26736,7 @@
         <v>22</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26749,7 +26754,7 @@
         <v>36</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26767,7 +26772,7 @@
         <v>22</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26785,7 +26790,7 @@
         <v>36</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26803,7 +26808,7 @@
         <v>22</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26821,7 +26826,7 @@
         <v>28</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26839,7 +26844,7 @@
         <v>22</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26857,7 +26862,7 @@
         <v>36</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26875,7 +26880,7 @@
         <v>28</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26893,7 +26898,7 @@
         <v>25</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -26911,7 +26916,7 @@
         <v>25</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26929,7 +26934,7 @@
         <v>36</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26947,7 +26952,7 @@
         <v>22</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26965,7 +26970,7 @@
         <v>28</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -26983,7 +26988,7 @@
         <v>22</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27001,7 +27006,7 @@
         <v>36</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27019,7 +27024,7 @@
         <v>28</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27037,7 +27042,7 @@
         <v>22</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27055,7 +27060,7 @@
         <v>22</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27073,7 +27078,7 @@
         <v>36</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27091,7 +27096,7 @@
         <v>22</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27109,7 +27114,7 @@
         <v>25</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27127,7 +27132,7 @@
         <v>25</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27145,7 +27150,7 @@
         <v>36</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27163,7 +27168,7 @@
         <v>28</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27181,7 +27186,7 @@
         <v>22</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27199,7 +27204,7 @@
         <v>28</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27217,7 +27222,7 @@
         <v>36</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27235,7 +27240,7 @@
         <v>28</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27253,7 +27258,7 @@
         <v>36</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27271,7 +27276,7 @@
         <v>28</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27289,7 +27294,7 @@
         <v>36</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27307,7 +27312,7 @@
         <v>28</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27315,7 +27320,7 @@
         <v>1758</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C199" s="6">
         <f t="shared" si="3"/>
@@ -27325,7 +27330,7 @@
         <v>22</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27343,7 +27348,7 @@
         <v>28</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27361,7 +27366,7 @@
         <v>36</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27379,7 +27384,7 @@
         <v>28</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27397,7 +27402,7 @@
         <v>36</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27415,7 +27420,7 @@
         <v>28</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27433,7 +27438,7 @@
         <v>101</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27451,7 +27456,7 @@
         <v>19</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27469,7 +27474,7 @@
         <v>28</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27487,7 +27492,7 @@
         <v>36</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27505,7 +27510,7 @@
         <v>28</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27523,7 +27528,7 @@
         <v>36</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27541,7 +27546,7 @@
         <v>19</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27559,7 +27564,7 @@
         <v>28</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27575,7 +27580,7 @@
       </c>
       <c r="D213" s="6"/>
       <c r="K213" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27593,7 +27598,7 @@
         <v>36</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27611,7 +27616,7 @@
         <v>28</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27629,7 +27634,7 @@
         <v>19</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27647,7 +27652,7 @@
         <v>22</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27665,7 +27670,7 @@
         <v>28</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27683,7 +27688,7 @@
         <v>36</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L219" s="6"/>
     </row>
@@ -27702,7 +27707,7 @@
         <v>28</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27720,7 +27725,7 @@
         <v>22</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27738,7 +27743,7 @@
         <v>28</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27756,7 +27761,7 @@
         <v>26</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -27774,7 +27779,7 @@
         <v>28</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27792,7 +27797,7 @@
         <v>22</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27810,7 +27815,7 @@
         <v>36</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27828,7 +27833,7 @@
         <v>28</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27846,7 +27851,7 @@
         <v>36</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27864,7 +27869,7 @@
         <v>28</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27882,7 +27887,7 @@
         <v>23</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27900,7 +27905,7 @@
         <v>19</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27918,7 +27923,7 @@
         <v>36</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27936,7 +27941,7 @@
         <v>28</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27954,7 +27959,7 @@
         <v>36</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -27972,7 +27977,7 @@
         <v>19</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -27990,7 +27995,7 @@
         <v>22</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28008,7 +28013,7 @@
         <v>36</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28026,7 +28031,7 @@
         <v>25</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28044,7 +28049,7 @@
         <v>36</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28062,7 +28067,7 @@
         <v>28</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28080,7 +28085,7 @@
         <v>19</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28098,7 +28103,7 @@
         <v>19</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28116,7 +28121,7 @@
         <v>28</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28134,7 +28139,7 @@
         <v>36</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28152,7 +28157,7 @@
         <v>28</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28170,7 +28175,7 @@
         <v>36</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28188,7 +28193,7 @@
         <v>23</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28206,7 +28211,7 @@
         <v>28</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28221,7 +28226,7 @@
         <v>3</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28236,7 +28241,7 @@
         <v>15</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28254,7 +28259,7 @@
         <v>28</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28272,7 +28277,7 @@
         <v>36</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28287,7 +28292,7 @@
         <v>2</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28305,7 +28310,7 @@
         <v>28</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28323,7 +28328,7 @@
         <v>22</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28341,7 +28346,7 @@
         <v>28</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28356,7 +28361,7 @@
         <v>2</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28374,7 +28379,7 @@
         <v>28</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28392,7 +28397,7 @@
         <v>19</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28410,7 +28415,7 @@
         <v>28</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28428,7 +28433,7 @@
         <v>25</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28446,7 +28451,7 @@
         <v>28</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28464,7 +28469,7 @@
         <v>19</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28482,7 +28487,7 @@
         <v>22</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28500,7 +28505,7 @@
         <v>22</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28518,7 +28523,7 @@
         <v>25</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28536,7 +28541,7 @@
         <v>19</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28554,7 +28559,7 @@
         <v>36</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28572,7 +28577,7 @@
         <v>22</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28590,7 +28595,7 @@
         <v>28</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28608,7 +28613,7 @@
         <v>36</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28626,7 +28631,7 @@
         <v>22</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28644,7 +28649,7 @@
         <v>36</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28662,7 +28667,7 @@
         <v>25</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28680,7 +28685,7 @@
         <v>36</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28698,7 +28703,7 @@
         <v>28</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28716,7 +28721,7 @@
         <v>36</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28731,7 +28736,7 @@
         <v>4</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28749,7 +28754,7 @@
         <v>36</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28767,7 +28772,7 @@
         <v>22</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="281" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28785,7 +28790,7 @@
         <v>28</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="282" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28803,7 +28808,7 @@
         <v>36</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="283" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28821,7 +28826,7 @@
         <v>28</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="284" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28839,7 +28844,7 @@
         <v>23</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="285" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28857,7 +28862,7 @@
         <v>28</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="286" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28872,7 +28877,7 @@
         <v>41</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28890,7 +28895,7 @@
         <v>36</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="288" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28908,7 +28913,7 @@
         <v>22</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="289" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28926,7 +28931,7 @@
         <v>28</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="290" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28944,7 +28949,7 @@
         <v>19</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="291" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28962,7 +28967,7 @@
         <v>36</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="292" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28980,7 +28985,7 @@
         <v>22</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="293" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28998,7 +29003,7 @@
         <v>36</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="294" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29016,7 +29021,7 @@
         <v>24</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="295" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29034,7 +29039,7 @@
         <v>19</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="296" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29052,7 +29057,7 @@
         <v>36</v>
       </c>
       <c r="K296" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="297" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29070,7 +29075,7 @@
         <v>28</v>
       </c>
       <c r="K297" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="298" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29088,7 +29093,7 @@
         <v>36</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="299" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29106,7 +29111,7 @@
         <v>19</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="300" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29124,7 +29129,7 @@
         <v>36</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="301" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29142,7 +29147,7 @@
         <v>19</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="302" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29160,7 +29165,7 @@
         <v>36</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29178,7 +29183,7 @@
         <v>22</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="304" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29196,7 +29201,7 @@
         <v>19</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="305" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29214,7 +29219,7 @@
         <v>28</v>
       </c>
       <c r="K305" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="306" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29232,7 +29237,7 @@
         <v>36</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="307" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29250,7 +29255,7 @@
         <v>28</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29268,7 +29273,7 @@
         <v>101</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="309" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29286,7 +29291,7 @@
         <v>36</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="310" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29304,7 +29309,7 @@
         <v>28</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="311" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29322,7 +29327,7 @@
         <v>23</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="312" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -29331,12 +29336,8 @@
       </c>
       <c r="C312" s="6"/>
     </row>
-    <row r="313" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>297</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A4:U313" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Multi-taxa_data/PLITs/extraction/PLIT_ZP.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_ZP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7360EE86-A198-4A9F-8A09-95C48EB407DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0E9059-85C4-49D2-BA22-B5D0C7EBAE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="S3" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$U$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$U$304</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$U$313</definedName>
   </definedNames>
@@ -6289,10 +6290,10 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A147" sqref="A147"/>
+      <selection pane="bottomRight" activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6310,7 +6311,7 @@
     <col min="12" max="22" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -6328,7 +6329,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -6346,7 +6347,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -6365,7 +6366,7 @@
       <c r="L3" s="3"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -6410,7 +6411,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>30</v>
       </c>
@@ -6437,7 +6438,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>39</v>
       </c>
@@ -6459,7 +6460,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>53</v>
       </c>
@@ -6481,7 +6482,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>56</v>
       </c>
@@ -6507,7 +6508,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>83</v>
       </c>
@@ -6533,7 +6534,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -6555,7 +6556,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>107</v>
       </c>
@@ -6575,7 +6576,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>108</v>
       </c>
@@ -6595,7 +6596,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>178</v>
       </c>
@@ -6616,7 +6617,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>184</v>
       </c>
@@ -6637,7 +6638,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>212</v>
       </c>
@@ -6657,7 +6658,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>220</v>
       </c>
@@ -6676,7 +6677,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>233</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>249</v>
       </c>
@@ -6714,7 +6715,7 @@
       </c>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>299</v>
       </c>
@@ -6733,7 +6734,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>314</v>
       </c>
@@ -6751,7 +6752,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>323</v>
       </c>
@@ -6769,7 +6770,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>328</v>
       </c>
@@ -6788,7 +6789,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>375</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>379</v>
       </c>
@@ -6826,7 +6827,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>386</v>
       </c>
@@ -6845,7 +6846,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>425</v>
       </c>
@@ -6864,7 +6865,7 @@
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>428</v>
       </c>
@@ -6883,7 +6884,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>430</v>
       </c>
@@ -6899,7 +6900,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>433</v>
       </c>
@@ -6917,7 +6918,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>436</v>
       </c>
@@ -6935,7 +6936,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>439</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>443</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>446</v>
       </c>
@@ -6989,7 +6990,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>451</v>
       </c>
@@ -7007,7 +7008,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>473</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>479</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>500</v>
       </c>
@@ -7061,7 +7062,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>505</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>508</v>
       </c>
@@ -7097,7 +7098,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>514</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>521</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>538</v>
       </c>
@@ -7152,7 +7153,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>542</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>546</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>558</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>563</v>
       </c>
@@ -7226,7 +7227,7 @@
       </c>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>567</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>576</v>
       </c>
@@ -7262,7 +7263,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>593</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>602</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>607</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>611</v>
       </c>
@@ -7334,7 +7335,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>615</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>620</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>640</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>649</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>651</v>
       </c>
@@ -7424,7 +7425,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>653</v>
       </c>
@@ -7442,7 +7443,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>655</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>657</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>659</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>693</v>
       </c>
@@ -7515,7 +7516,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>707</v>
       </c>
@@ -7533,12 +7534,12 @@
         <v>566</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>717</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C64" s="6">
         <f t="shared" si="0"/>
@@ -7552,7 +7553,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>722</v>
       </c>
@@ -7572,7 +7573,7 @@
       </c>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>725</v>
       </c>
@@ -7590,7 +7591,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>734</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>744</v>
       </c>
@@ -7626,7 +7627,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>754</v>
       </c>
@@ -7645,7 +7646,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>805</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>809</v>
       </c>
@@ -7681,7 +7682,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>831</v>
       </c>
@@ -7699,7 +7700,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>842</v>
       </c>
@@ -7718,7 +7719,7 @@
       </c>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>870</v>
       </c>
@@ -7734,7 +7735,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>872</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>890</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>952</v>
       </c>
@@ -7789,7 +7790,7 @@
       </c>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>1038</v>
       </c>
@@ -7808,7 +7809,7 @@
       </c>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>1047</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1102</v>
       </c>
@@ -7844,7 +7845,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1106</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1126</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1127</v>
       </c>
@@ -7898,7 +7899,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1132</v>
       </c>
@@ -7916,7 +7917,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1320</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1322</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>1351</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1353</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>1355</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1357</v>
       </c>
@@ -8020,7 +8021,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>1358</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1407</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>1417</v>
       </c>
@@ -8072,7 +8073,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1426</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1428</v>
       </c>
@@ -8108,7 +8109,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1439</v>
       </c>
@@ -8126,7 +8127,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1452</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1501</v>
       </c>
@@ -8162,7 +8163,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1503</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1642</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1648</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1670</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1678</v>
       </c>
@@ -8250,7 +8251,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1684</v>
       </c>
@@ -8268,7 +8269,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1713</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1718</v>
       </c>
@@ -8302,7 +8303,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1850</v>
       </c>
@@ -8320,7 +8321,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1861</v>
       </c>
@@ -8338,7 +8339,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1864</v>
       </c>
@@ -8357,7 +8358,7 @@
       </c>
       <c r="L109" s="6"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>1868</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1882</v>
       </c>
@@ -8393,7 +8394,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1910</v>
       </c>
@@ -8411,7 +8412,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>1932</v>
       </c>
@@ -8429,7 +8430,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>1941</v>
       </c>
@@ -8447,7 +8448,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>1946</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>1949</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>2067</v>
       </c>
@@ -8503,7 +8504,7 @@
       </c>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>2099</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>2105</v>
       </c>
@@ -8539,7 +8540,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>2107</v>
       </c>
@@ -8557,7 +8558,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>2110</v>
       </c>
@@ -8575,7 +8576,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>2120</v>
       </c>
@@ -8593,7 +8594,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>2153</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>2157</v>
       </c>
@@ -8630,7 +8631,7 @@
       </c>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2167</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2170</v>
       </c>
@@ -8666,7 +8667,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2180</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>2184</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>2209</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2213</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>2360</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>2365</v>
       </c>
@@ -8772,7 +8773,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>2432</v>
       </c>
@@ -8790,7 +8791,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>2436</v>
       </c>
@@ -8808,7 +8809,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>2443</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>2445</v>
       </c>
@@ -8844,7 +8845,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>2473</v>
       </c>
@@ -8862,7 +8863,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>2478</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2502</v>
       </c>
@@ -8898,7 +8899,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>2507</v>
       </c>
@@ -8916,7 +8917,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2518</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2536</v>
       </c>
@@ -8952,7 +8953,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>2538</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>2543</v>
       </c>
@@ -8988,7 +8989,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>2554</v>
       </c>
@@ -9006,7 +9007,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2618</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>296</v>
       </c>
@@ -9026,112 +9027,112 @@
       <c r="D147" s="6"/>
       <c r="K147" s="6"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="K148" s="6"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="K149" s="6"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="K150" s="6"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="K151" s="6"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="K152" s="6"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="K153" s="6"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="K154" s="6"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="K155" s="6"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="K156" s="6"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="K157" s="6"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="K158" s="6"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="K159" s="6"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="K160" s="6"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="K161" s="6"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -9139,392 +9140,392 @@
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="K164" s="6"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="K165" s="6"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="K166" s="6"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="K167" s="6"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="K168" s="6"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="K169" s="6"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="K170" s="6"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="K172" s="6"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="K173" s="6"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="K174" s="6"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="K175" s="6"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="K176" s="6"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="K177" s="6"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="K178" s="6"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="K179" s="6"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="K180" s="6"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="K181" s="6"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="K182" s="6"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="K183" s="6"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="K184" s="6"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="K185" s="6"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="K186" s="6"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="K187" s="6"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="K188" s="6"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="K189" s="6"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="K191" s="6"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="K192" s="6"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="K193" s="6"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="K194" s="6"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="K195" s="6"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="K196" s="6"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="K197" s="6"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="K198" s="6"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="K199" s="6"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="K200" s="6"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="K201" s="6"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="K202" s="6"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="K203" s="6"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="K204" s="6"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="K205" s="6"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="K206" s="6"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="K207" s="6"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="K208" s="6"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="K209" s="6"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="K210" s="6"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="K211" s="6"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="K212" s="6"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="K213" s="6"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="K214" s="6"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="K215" s="6"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="K216" s="6"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="K217" s="6"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="K218" s="6"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -9532,113 +9533,114 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="K220" s="6"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="K221" s="6"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="K222" s="6"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="K223" s="6"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="K224" s="6"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="K225" s="6"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="K226" s="6"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="K227" s="6"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="K228" s="6"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="C234" s="6"/>
       <c r="K234" s="6"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U147" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18036,13 +18038,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H99" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="H111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="D305" sqref="D305"/>
@@ -18163,7 +18165,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -18190,7 +18192,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -18212,7 +18214,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>9</v>
       </c>
@@ -18260,7 +18262,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -18286,7 +18288,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -18328,7 +18330,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>29</v>
       </c>
@@ -18369,7 +18371,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>51</v>
       </c>
@@ -18429,7 +18431,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>61</v>
       </c>
@@ -18467,7 +18469,7 @@
       </c>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>67</v>
       </c>
@@ -18486,7 +18488,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>71</v>
       </c>
@@ -18504,7 +18506,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>73</v>
       </c>
@@ -18523,7 +18525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>88</v>
       </c>
@@ -18567,7 +18569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>125</v>
       </c>
@@ -18607,7 +18609,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>136</v>
       </c>
@@ -18645,7 +18647,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>173</v>
       </c>
@@ -18663,7 +18665,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>176</v>
       </c>
@@ -18699,7 +18701,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>195</v>
       </c>
@@ -18735,7 +18737,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>244</v>
       </c>
@@ -18753,7 +18755,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>246</v>
       </c>
@@ -18789,7 +18791,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>293</v>
       </c>
@@ -18825,7 +18827,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>310</v>
       </c>
@@ -18843,7 +18845,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>314</v>
       </c>
@@ -18861,7 +18863,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>319</v>
       </c>
@@ -18897,7 +18899,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>327</v>
       </c>
@@ -18934,7 +18936,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>334</v>
       </c>
@@ -18990,7 +18992,7 @@
       </c>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>365</v>
       </c>
@@ -19008,7 +19010,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>371</v>
       </c>
@@ -19044,7 +19046,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>433</v>
       </c>
@@ -19080,7 +19082,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>439</v>
       </c>
@@ -19116,7 +19118,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>470</v>
       </c>
@@ -19153,7 +19155,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>486</v>
       </c>
@@ -19171,7 +19173,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>489</v>
       </c>
@@ -19189,7 +19191,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>491</v>
       </c>
@@ -19207,7 +19209,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>526</v>
       </c>
@@ -19243,7 +19245,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>541</v>
       </c>
@@ -19262,7 +19264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>544</v>
       </c>
@@ -19301,7 +19303,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>556</v>
       </c>
@@ -19340,7 +19342,7 @@
       </c>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>561</v>
       </c>
@@ -19356,7 +19358,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>566</v>
       </c>
@@ -19447,7 +19449,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>629</v>
       </c>
@@ -19465,7 +19467,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>633</v>
       </c>
@@ -19502,7 +19504,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>642</v>
       </c>
@@ -19518,7 +19520,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>650</v>
       </c>
@@ -19536,7 +19538,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>667</v>
       </c>
@@ -19555,7 +19557,7 @@
       </c>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>683</v>
       </c>
@@ -19592,7 +19594,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>690</v>
       </c>
@@ -19610,7 +19612,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>706</v>
       </c>
@@ -19628,7 +19630,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>712</v>
       </c>
@@ -19644,7 +19646,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>718</v>
       </c>
@@ -19680,7 +19682,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>746</v>
       </c>
@@ -19698,7 +19700,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>749</v>
       </c>
@@ -19716,7 +19718,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>756</v>
       </c>
@@ -19750,7 +19752,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>774</v>
       </c>
@@ -19768,7 +19770,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>777</v>
       </c>
@@ -19784,7 +19786,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>781</v>
       </c>
@@ -19820,7 +19822,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>791</v>
       </c>
@@ -19838,7 +19840,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>795</v>
       </c>
@@ -19874,7 +19876,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>820</v>
       </c>
@@ -19910,7 +19912,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>832</v>
       </c>
@@ -19946,7 +19948,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>839</v>
       </c>
@@ -19982,7 +19984,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>846</v>
       </c>
@@ -20018,7 +20020,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>863</v>
       </c>
@@ -20072,7 +20074,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>877</v>
       </c>
@@ -20090,7 +20092,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>882</v>
       </c>
@@ -20108,7 +20110,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>883</v>
       </c>
@@ -20163,7 +20165,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>903</v>
       </c>
@@ -20181,7 +20183,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>908</v>
       </c>
@@ -20291,7 +20293,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>955</v>
       </c>
@@ -20341,7 +20343,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>971</v>
       </c>
@@ -20377,7 +20379,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>978</v>
       </c>
@@ -20414,7 +20416,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>989</v>
       </c>
@@ -20432,7 +20434,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>992</v>
       </c>
@@ -20450,7 +20452,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>994</v>
       </c>
@@ -20502,7 +20504,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>1006</v>
       </c>
@@ -20518,7 +20520,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>1008</v>
       </c>
@@ -20536,7 +20538,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>1022</v>
       </c>
@@ -20554,7 +20556,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>1031</v>
       </c>
@@ -20572,7 +20574,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>1035</v>
       </c>
@@ -20611,7 +20613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>1049</v>
       </c>
@@ -20632,7 +20634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>1055</v>
       </c>
@@ -20648,7 +20650,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>1062</v>
       </c>
@@ -20666,7 +20668,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>1065</v>
       </c>
@@ -20684,7 +20686,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>1071</v>
       </c>
@@ -20702,7 +20704,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>1076</v>
       </c>
@@ -20720,7 +20722,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>1078</v>
       </c>
@@ -20756,7 +20758,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>1096</v>
       </c>
@@ -20793,7 +20795,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>1103</v>
       </c>
@@ -20835,7 +20837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>1114</v>
       </c>
@@ -20871,7 +20873,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>1142</v>
       </c>
@@ -20907,7 +20909,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>1153</v>
       </c>
@@ -20925,7 +20927,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>1166</v>
       </c>
@@ -20943,7 +20945,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>1168</v>
       </c>
@@ -20979,7 +20981,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>1173</v>
       </c>
@@ -20997,7 +20999,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>1188</v>
       </c>
@@ -21031,7 +21033,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>1205</v>
       </c>
@@ -21049,7 +21051,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>1214</v>
       </c>
@@ -21067,7 +21069,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>1230</v>
       </c>
@@ -21104,7 +21106,7 @@
       </c>
       <c r="L163" s="6"/>
     </row>
-    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>1253</v>
       </c>
@@ -21122,7 +21124,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>1259</v>
       </c>
@@ -21140,7 +21142,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>1262</v>
       </c>
@@ -21176,7 +21178,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>1279</v>
       </c>
@@ -21194,7 +21196,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>1283</v>
       </c>
@@ -21230,7 +21232,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>1311</v>
       </c>
@@ -21266,7 +21268,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19">
         <v>1334</v>
       </c>
@@ -21284,7 +21286,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="19">
         <v>1339</v>
       </c>
@@ -21300,7 +21302,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19">
         <v>1347</v>
       </c>
@@ -21354,7 +21356,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="19">
         <v>1374</v>
       </c>
@@ -21390,7 +21392,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19">
         <v>1390</v>
       </c>
@@ -21408,7 +21410,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="19">
         <v>1392</v>
       </c>
@@ -21462,7 +21464,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="19">
         <v>1425</v>
       </c>
@@ -21552,7 +21554,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19">
         <v>1498</v>
       </c>
@@ -21588,7 +21590,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="19">
         <v>1507</v>
       </c>
@@ -21606,7 +21608,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="19">
         <v>1513</v>
       </c>
@@ -21660,7 +21662,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="19">
         <v>1541</v>
       </c>
@@ -21678,7 +21680,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="19">
         <v>1560</v>
       </c>
@@ -21694,7 +21696,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="19">
         <v>1563</v>
       </c>
@@ -21730,7 +21732,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="19">
         <v>1567</v>
       </c>
@@ -21766,7 +21768,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="19">
         <v>1577</v>
       </c>
@@ -21802,7 +21804,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="19">
         <v>1613</v>
       </c>
@@ -21820,7 +21822,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="19">
         <v>1626</v>
       </c>
@@ -21872,7 +21874,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="19">
         <v>1643</v>
       </c>
@@ -21890,7 +21892,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="19">
         <v>1650</v>
       </c>
@@ -21944,7 +21946,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="19">
         <v>1672</v>
       </c>
@@ -21980,7 +21982,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="19">
         <v>1694</v>
       </c>
@@ -21998,7 +22000,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="19">
         <v>1697</v>
       </c>
@@ -22016,7 +22018,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="19">
         <v>1722</v>
       </c>
@@ -22034,7 +22036,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="19">
         <v>1740</v>
       </c>
@@ -22050,7 +22052,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="19">
         <v>1746</v>
       </c>
@@ -22068,7 +22070,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="19">
         <v>1747</v>
       </c>
@@ -22084,7 +22086,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="19">
         <v>1766</v>
       </c>
@@ -22121,7 +22123,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="19">
         <v>1775</v>
       </c>
@@ -22157,7 +22159,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="19">
         <v>1790</v>
       </c>
@@ -22193,7 +22195,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="19">
         <v>1808</v>
       </c>
@@ -22229,7 +22231,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="19">
         <v>1815</v>
       </c>
@@ -22265,7 +22267,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="19">
         <v>1825</v>
       </c>
@@ -22301,7 +22303,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="19">
         <v>1848</v>
       </c>
@@ -22319,7 +22321,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="19">
         <v>1851</v>
       </c>
@@ -22335,7 +22337,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="19">
         <v>1853</v>
       </c>
@@ -22353,7 +22355,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="19">
         <v>1856</v>
       </c>
@@ -22371,7 +22373,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="19">
         <v>1883</v>
       </c>
@@ -22389,7 +22391,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="19">
         <v>1885</v>
       </c>
@@ -22407,7 +22409,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="19">
         <v>1919</v>
       </c>
@@ -22425,7 +22427,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="19">
         <v>1975</v>
       </c>
@@ -22443,7 +22445,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="19">
         <v>1980</v>
       </c>
@@ -22461,7 +22463,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="19">
         <v>1985</v>
       </c>
@@ -22479,7 +22481,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="19">
         <v>1987</v>
       </c>
@@ -22497,7 +22499,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="19">
         <v>1989</v>
       </c>
@@ -22518,7 +22520,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="19">
         <v>1994</v>
       </c>
@@ -22554,7 +22556,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="19">
         <v>2024</v>
       </c>
@@ -22590,7 +22592,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="19">
         <v>2042</v>
       </c>
@@ -22662,7 +22664,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="19">
         <v>2079</v>
       </c>
@@ -22698,7 +22700,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="19">
         <v>2098</v>
       </c>
@@ -22752,7 +22754,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="19">
         <v>2140</v>
       </c>
@@ -22788,7 +22790,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="19">
         <v>2150</v>
       </c>
@@ -22806,7 +22808,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="19">
         <v>2168</v>
       </c>
@@ -22860,7 +22862,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="19">
         <v>2222</v>
       </c>
@@ -22878,7 +22880,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="19">
         <v>2235</v>
       </c>
@@ -22896,7 +22898,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="19">
         <v>2238</v>
       </c>
@@ -22914,7 +22916,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="19">
         <v>2242</v>
       </c>
@@ -22932,7 +22934,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="19">
         <v>2247</v>
       </c>
@@ -22986,7 +22988,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="19">
         <v>2270</v>
       </c>
@@ -23022,7 +23024,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="19">
         <v>2284</v>
       </c>
@@ -23040,7 +23042,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="19">
         <v>2291</v>
       </c>
@@ -23055,7 +23057,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="19">
         <v>2313</v>
       </c>
@@ -23091,7 +23093,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="19">
         <v>2327</v>
       </c>
@@ -23109,7 +23111,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="19">
         <v>2337</v>
       </c>
@@ -23181,7 +23183,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="19">
         <v>2374</v>
       </c>
@@ -23199,7 +23201,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="19">
         <v>2381</v>
       </c>
@@ -23217,7 +23219,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="19">
         <v>2397</v>
       </c>
@@ -23259,7 +23261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="19">
         <v>2408</v>
       </c>
@@ -23313,7 +23315,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="19">
         <v>2433</v>
       </c>
@@ -23331,7 +23333,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="19">
         <v>2457</v>
       </c>
@@ -23388,7 +23390,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="19">
         <v>2482</v>
       </c>
@@ -23427,7 +23429,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="19">
         <v>2492</v>
       </c>
@@ -23463,7 +23465,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="19">
         <v>2498</v>
       </c>
@@ -23481,7 +23483,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="19">
         <v>2512</v>
       </c>
@@ -23499,7 +23501,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="19">
         <v>2514</v>
       </c>
@@ -23514,7 +23516,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="19">
         <v>2521</v>
       </c>
@@ -23550,7 +23552,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="19">
         <v>2540</v>
       </c>
@@ -23604,18 +23606,24 @@
         <v>295</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="19">
         <v>2577</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="16" t="s">
         <v>296</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:U304" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A4:U304" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="hard_coral"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -23628,11 +23636,11 @@
   </sheetPr>
   <dimension ref="A1:U312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="J296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A313" sqref="A313"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
